--- a/REGULAR/OJT/NEW DONE/MACASPAC, ELVIRA.xlsx
+++ b/REGULAR/OJT/NEW DONE/MACASPAC, ELVIRA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="480">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1479,6 +1479,9 @@
   </si>
   <si>
     <t>2/10,13/2023</t>
+  </si>
+  <si>
+    <t>3/9,15/2023</t>
   </si>
 </sst>
 </file>
@@ -2344,7 +2347,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2390,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2451,7 +2454,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2511,7 +2514,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2577,7 +2580,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2640,7 +2643,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2738,7 +2741,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2797,7 +2800,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2862,7 +2865,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2905,7 +2908,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2980,7 +2983,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3166,7 +3169,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3232,7 +3235,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3290,7 +3293,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3356,7 +3359,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3412,7 +3415,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3487,7 +3490,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3530,7 +3533,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3596,7 +3599,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3652,7 +3655,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3750,7 +3753,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3813,7 +3816,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4260,9 +4263,9 @@
   <dimension ref="A2:K634"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A533" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A539" activePane="bottomLeft"/>
       <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="B554" sqref="B554"/>
+      <selection pane="bottomLeft" activeCell="B555" sqref="B555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16672,7 +16675,9 @@
       <c r="A554" s="40">
         <v>44986</v>
       </c>
-      <c r="B554" s="20"/>
+      <c r="B554" s="20" t="s">
+        <v>254</v>
+      </c>
       <c r="C554" s="13">
         <v>1.25</v>
       </c>
@@ -16686,7 +16691,9 @@
       <c r="H554" s="39"/>
       <c r="I554" s="9"/>
       <c r="J554" s="11"/>
-      <c r="K554" s="20"/>
+      <c r="K554" s="20" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">

--- a/REGULAR/OJT/NEW DONE/MACASPAC, ELVIRA.xlsx
+++ b/REGULAR/OJT/NEW DONE/MACASPAC, ELVIRA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690EC10B-BFDF-42A9-87DF-FEC032CEDE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB28500-7351-43F4-85FE-DC2DBEA695F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="483">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3885,6 +3885,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K631" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K631" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -4265,9 +4266,9 @@
   <dimension ref="A2:K631"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A7"/>
-      <selection activeCell="F6" sqref="F6"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="3696" topLeftCell="A450" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="D454" sqref="D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4430,7 +4431,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>126.29400000000004</v>
+        <v>114.54400000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4440,7 +4441,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>241.875</v>
+        <v>237.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10249,7 +10250,9 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H264" s="39"/>
+      <c r="H264" s="39">
+        <v>1</v>
+      </c>
       <c r="I264" s="9"/>
       <c r="J264" s="11"/>
       <c r="K264" s="20" t="s">
@@ -10473,7 +10476,9 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H274" s="39"/>
+      <c r="H274" s="39">
+        <v>1</v>
+      </c>
       <c r="I274" s="9"/>
       <c r="J274" s="11"/>
       <c r="K274" s="20" t="s">
@@ -13315,7 +13320,9 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H399" s="39"/>
+      <c r="H399" s="39">
+        <v>1</v>
+      </c>
       <c r="I399" s="9"/>
       <c r="J399" s="11"/>
       <c r="K399" s="49">
@@ -13585,7 +13592,9 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H411" s="39"/>
+      <c r="H411" s="39">
+        <v>1</v>
+      </c>
       <c r="I411" s="9"/>
       <c r="J411" s="11"/>
       <c r="K411" s="20" t="s">
@@ -13995,7 +14004,9 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H429" s="39"/>
+      <c r="H429" s="39">
+        <v>1</v>
+      </c>
       <c r="I429" s="9"/>
       <c r="J429" s="11"/>
       <c r="K429" s="20" t="s">
@@ -14344,7 +14355,9 @@
       <c r="C445" s="13">
         <v>1.25</v>
       </c>
-      <c r="D445" s="39"/>
+      <c r="D445" s="39">
+        <v>3</v>
+      </c>
       <c r="E445" s="9"/>
       <c r="F445" s="20"/>
       <c r="G445" s="13">
@@ -15068,7 +15081,9 @@
         <v>217</v>
       </c>
       <c r="C478" s="13"/>
-      <c r="D478" s="39"/>
+      <c r="D478" s="39">
+        <v>2</v>
+      </c>
       <c r="E478" s="9"/>
       <c r="F478" s="20"/>
       <c r="G478" s="13" t="str">
@@ -15176,7 +15191,9 @@
       <c r="C483" s="13">
         <v>1.25</v>
       </c>
-      <c r="D483" s="39"/>
+      <c r="D483" s="39">
+        <v>2</v>
+      </c>
       <c r="E483" s="9"/>
       <c r="F483" s="20"/>
       <c r="G483" s="13">
@@ -15300,7 +15317,9 @@
       <c r="C489" s="13">
         <v>1.25</v>
       </c>
-      <c r="D489" s="39"/>
+      <c r="D489" s="39">
+        <v>1</v>
+      </c>
       <c r="E489" s="9"/>
       <c r="F489" s="20"/>
       <c r="G489" s="13">
@@ -15908,7 +15927,9 @@
       <c r="C517" s="13">
         <v>1.25</v>
       </c>
-      <c r="D517" s="39"/>
+      <c r="D517" s="39">
+        <v>5</v>
+      </c>
       <c r="E517" s="9"/>
       <c r="F517" s="20"/>
       <c r="G517" s="13">
@@ -16653,13 +16674,15 @@
         <v>45017</v>
       </c>
       <c r="B552" s="20"/>
-      <c r="C552" s="13"/>
+      <c r="C552" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D552" s="39"/>
       <c r="E552" s="9"/>
       <c r="F552" s="20"/>
-      <c r="G552" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G552" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H552" s="39"/>
       <c r="I552" s="9"/>
@@ -16667,8 +16690,12 @@
       <c r="K552" s="20"/>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A553" s="40"/>
-      <c r="B553" s="20"/>
+      <c r="A553" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B553" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C553" s="13"/>
       <c r="D553" s="39"/>
       <c r="E553" s="9"/>
@@ -16677,10 +16704,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H553" s="39"/>
+      <c r="H553" s="39">
+        <v>1</v>
+      </c>
       <c r="I553" s="9"/>
       <c r="J553" s="11"/>
-      <c r="K553" s="20"/>
+      <c r="K553" s="49">
+        <v>45044</v>
+      </c>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40"/>
@@ -18098,7 +18129,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>368.16900000000004</v>
+        <v>351.66900000000004</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/OJT/NEW DONE/MACASPAC, ELVIRA.xlsx
+++ b/REGULAR/OJT/NEW DONE/MACASPAC, ELVIRA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB28500-7351-43F4-85FE-DC2DBEA695F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9882B638-2DC1-4248-9404-1F3E93FE8EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="484">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1484,6 +1484,9 @@
   </si>
   <si>
     <t>1 - Married (and not separated)</t>
+  </si>
+  <si>
+    <t>5/31-6/2/2023</t>
   </si>
 </sst>
 </file>
@@ -4266,9 +4269,9 @@
   <dimension ref="A2:K631"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A450" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A546" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="D454" sqref="D454"/>
+      <selection pane="bottomLeft" activeCell="B555" sqref="B555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4431,7 +4434,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>114.54400000000004</v>
+        <v>111.54400000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -16715,9 +16718,13 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40"/>
-      <c r="B554" s="20"/>
+      <c r="B554" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="C554" s="13"/>
-      <c r="D554" s="39"/>
+      <c r="D554" s="39">
+        <v>3</v>
+      </c>
       <c r="E554" s="9"/>
       <c r="F554" s="20"/>
       <c r="G554" s="13" t="str">
@@ -16727,7 +16734,9 @@
       <c r="H554" s="39"/>
       <c r="I554" s="9"/>
       <c r="J554" s="11"/>
-      <c r="K554" s="20"/>
+      <c r="K554" s="20" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
@@ -18129,7 +18138,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>351.66900000000004</v>
+        <v>348.66900000000004</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
